--- a/Application/JustR/AccountReport (03 Oct 2016).xlsx
+++ b/Application/JustR/AccountReport (03 Oct 2016).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="145">
   <si>
     <t>Doorstep Chef Accountant Sheet</t>
   </si>
@@ -90,12 +90,30 @@
     <t>3</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Luntu Arendze</t>
+  </si>
+  <si>
+    <t>Fri Oct 2016 10:14:16</t>
+  </si>
+  <si>
     <t>Christiaan Barnard</t>
   </si>
   <si>
     <t>0219976485</t>
   </si>
   <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t>0645554478</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Rossouw Binedell</t>
   </si>
   <si>
@@ -126,6 +144,9 @@
     <t>0698847563</t>
   </si>
   <si>
+    <t>Fri Oct 2016 10:14:17</t>
+  </si>
+  <si>
     <t>Bonnie Clyde</t>
   </si>
   <si>
@@ -144,6 +165,21 @@
     <t>22</t>
   </si>
   <si>
+    <t>Alice Cullen</t>
+  </si>
+  <si>
+    <t>0786662772</t>
+  </si>
+  <si>
+    <t>Edward  Cullen</t>
+  </si>
+  <si>
+    <t>0786663535</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Johnny Depp</t>
   </si>
   <si>
@@ -156,9 +192,6 @@
     <t>0314569832</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Albus Dumbledore</t>
   </si>
   <si>
@@ -180,9 +213,6 @@
     <t>0786653216</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Selena Gomez</t>
   </si>
   <si>
@@ -204,12 +234,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>Afro Jack</t>
-  </si>
-  <si>
-    <t>0324487569</t>
-  </si>
-  <si>
     <t>Michael Jackson</t>
   </si>
   <si>
@@ -231,12 +255,6 @@
     <t>0879971172</t>
   </si>
   <si>
-    <t>Indianah Jones</t>
-  </si>
-  <si>
-    <t>0987878765</t>
-  </si>
-  <si>
     <t>James Earl Jones</t>
   </si>
   <si>
@@ -354,6 +372,21 @@
     <t>Seth Rogen</t>
   </si>
   <si>
+    <t>Fri Oct 2016 10:14:18</t>
+  </si>
+  <si>
+    <t>Damon Salvatore</t>
+  </si>
+  <si>
+    <t>0782282828</t>
+  </si>
+  <si>
+    <t>Stefan Salvatore</t>
+  </si>
+  <si>
+    <t>0873737373</t>
+  </si>
+  <si>
     <t>White Shadow</t>
   </si>
   <si>
@@ -382,12 +415,6 @@
   </si>
   <si>
     <t>0647758942</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>0111112222</t>
   </si>
   <si>
     <t>Darth Vader</t>
@@ -4981,7 +5008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1381">
+  <cellXfs count="1457">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5047,6 +5074,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
@@ -5057,6 +5114,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5161,6 +5221,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
@@ -5171,6 +5241,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5235,6 +5308,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
@@ -5245,6 +5338,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5349,6 +5445,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5403,6 +5502,9 @@
     <xf numFmtId="0" fontId="150" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5467,6 +5569,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5541,6 +5646,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5605,6 +5713,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5659,6 +5770,9 @@
     <xf numFmtId="0" fontId="270" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5743,26 +5857,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
@@ -5773,6 +5867,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5837,6 +5934,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5931,6 +6031,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6005,6 +6108,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6079,6 +6185,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6163,6 +6272,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6257,6 +6369,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6311,6 +6426,9 @@
     <xf numFmtId="0" fontId="510" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6405,6 +6523,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6489,6 +6610,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
@@ -6499,6 +6640,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6553,16 +6697,6 @@
     <xf numFmtId="0" fontId="600" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
@@ -6573,6 +6707,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6627,6 +6764,9 @@
     <xf numFmtId="0" fontId="630" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6701,6 +6841,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="663" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6815,6 +6958,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6869,6 +7015,9 @@
     <xf numFmtId="0" fontId="720" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="721" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="722" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6923,6 +7072,9 @@
     <xf numFmtId="0" fontId="750" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="751" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="753" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -6987,6 +7139,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -7006,9 +7161,9 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="72.578125" customWidth="true"/>
+    <col min="10" max="10" width="75.390625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7171,10 +7326,112 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="51">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="52">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="53">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s" s="54">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="55">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="56">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="57">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="58">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="59">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="61">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="62">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="63">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="64">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="65">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="66">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="67">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="68">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="69">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="71">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s" s="72">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s" s="73">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s" s="74">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="75">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="76">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="77">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="79">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="81">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A10:J10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7195,303 +7452,245 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="69.765625" customWidth="true"/>
+    <col min="10" max="10" width="72.578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
+      <c r="A1" t="s" s="530">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="462">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="463">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="464">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="465">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="466">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="467">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="468">
+      <c r="B1" t="s" s="531">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="532">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="533">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="534">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="535">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="536">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="537">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="469">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="470">
+      <c r="I1" t="s" s="538">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="539">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="471">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="472">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="473">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="474">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="475">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="476">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="477">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="478">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="479">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="480">
+      <c r="A2" t="s" s="540">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="541">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="542">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="543">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="544">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="545">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="546">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="547">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="548">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="549">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="481">
+      <c r="A3" t="s" s="550">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="482">
+      <c r="B3" t="s" s="551">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="483">
+      <c r="C3" t="s" s="552">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="484">
+      <c r="D3" t="s" s="553">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="485">
+      <c r="E3" t="s" s="554">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="486">
+      <c r="F3" t="s" s="555">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="487">
+      <c r="G3" t="s" s="556">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="488">
+      <c r="H3" t="s" s="557">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="489">
+      <c r="I3" t="s" s="558">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="490">
+      <c r="J3" t="s" s="559">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="491">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s" s="492">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s" s="493">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s" s="494">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="495">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="496">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="497">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="498">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="499">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="500">
+      <c r="A4" t="s" s="560">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s" s="561">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s" s="562">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="563">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="564">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="565">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="566">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="567">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="568">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="569">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="501">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s" s="502">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s" s="503">
+      <c r="A5" t="s" s="570">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s" s="571">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s" s="572">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s" s="573">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="574">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="575">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="576">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="577">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="578">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="580">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s" s="581">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s" s="582">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="583">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="584">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="585">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="586">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="587">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="588">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="590">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s" s="591">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s" s="592">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="504">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="505">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="506">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="507">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="508">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="509">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="510">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="511">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s" s="512">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s" s="513">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s" s="514">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="515">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="516">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="517">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="518">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="519">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="520">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="521">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s" s="522">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s" s="523">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s" s="524">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="525">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="526">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="527">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="528">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="529">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="530">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="531">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s" s="532">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s" s="533">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s" s="534">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="535">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="536">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="537">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="538">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s" s="539">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s" s="540">
+      <c r="D7" t="s" s="593">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="594">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="595">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="596">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="597">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="598">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="599">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="541">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s" s="542">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s" s="543">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s" s="544">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="545">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="546">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s" s="547">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s" s="548">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s" s="549">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s" s="550">
-        <v>1</v>
+      <c r="A9" t="s" s="600">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7512,143 +7711,149 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="76.328125" customWidth="true"/>
+    <col min="10" max="10" width="79.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="551">
+      <c r="A1" t="s" s="601">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="552">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="553">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="554">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="555">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="556">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="557">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="558">
+      <c r="B1" t="s" s="602">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="603">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="604">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="605">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="606">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="607">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="608">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="559">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="560">
+      <c r="I1" t="s" s="609">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="610">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="561">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="562">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="563">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="564">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="565">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="566">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="567">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="568">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="569">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="570">
+      <c r="A2" t="s" s="611">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="612">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="613">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="614">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="615">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="616">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="617">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="618">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="619">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="620">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="571">
+      <c r="A3" t="s" s="621">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="572">
+      <c r="B3" t="s" s="622">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="573">
+      <c r="C3" t="s" s="623">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="574">
+      <c r="D3" t="s" s="624">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="575">
+      <c r="E3" t="s" s="625">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="576">
+      <c r="F3" t="s" s="626">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="577">
+      <c r="G3" t="s" s="627">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="578">
+      <c r="H3" t="s" s="628">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="579">
+      <c r="I3" t="s" s="629">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="580">
+      <c r="J3" t="s" s="630">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="581">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s" s="582">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s" s="583">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="584">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="585">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="586">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="587">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="588">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="589">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="590">
-        <v>1</v>
+      <c r="A4" t="s" s="631">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s" s="632">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s" s="633">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="634">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="635">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="636">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="637">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="638">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="639">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="641">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7669,239 +7874,245 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="67.890625" customWidth="true"/>
+    <col min="10" max="10" width="70.703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="591">
+      <c r="A1" t="s" s="642">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="592">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="593">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="594">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="595">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="596">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="597">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="598">
+      <c r="B1" t="s" s="643">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="644">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="645">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="646">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="647">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="648">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="649">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="599">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="600">
+      <c r="I1" t="s" s="650">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="651">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="601">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="602">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="603">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="604">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="605">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="606">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="607">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="608">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="609">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="610">
+      <c r="A2" t="s" s="652">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="653">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="654">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="655">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="656">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="657">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="658">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="659">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="660">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="661">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="611">
+      <c r="A3" t="s" s="662">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="612">
+      <c r="B3" t="s" s="663">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="613">
+      <c r="C3" t="s" s="664">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="614">
+      <c r="D3" t="s" s="665">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="615">
+      <c r="E3" t="s" s="666">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="616">
+      <c r="F3" t="s" s="667">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="617">
+      <c r="G3" t="s" s="668">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="618">
+      <c r="H3" t="s" s="669">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="619">
+      <c r="I3" t="s" s="670">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="620">
+      <c r="J3" t="s" s="671">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="621">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s" s="622">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s" s="623">
+      <c r="A4" t="s" s="672">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s" s="673">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s" s="674">
         <v>16</v>
       </c>
-      <c r="D4" t="s" s="624">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="625">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="626">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="627">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="628">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="629">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="630">
+      <c r="D4" t="s" s="675">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="676">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="677">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="678">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="679">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="680">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="681">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="631">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s" s="632">
+      <c r="A5" t="s" s="682">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s" s="683">
         <v>14</v>
       </c>
-      <c r="C5" t="s" s="633">
+      <c r="C5" t="s" s="684">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s" s="685">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="686">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="687">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="688">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="689">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="690">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="692">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s" s="693">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s" s="694">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="634">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="635">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="636">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="637">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="638">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="639">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="640">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="641">
-        <v>73</v>
-      </c>
-      <c r="B6" t="s" s="642">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s" s="643">
+      <c r="D6" t="s" s="695">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="696">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="697">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="698">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="699">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="700">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="702">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s" s="703">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s" s="704">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="644">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="645">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="646">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="647">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="648">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="649">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="650">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="651">
-        <v>75</v>
-      </c>
-      <c r="B7" t="s" s="652">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s" s="653">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="654">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="655">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="656">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="657">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="658">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="659">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="660">
-        <v>1</v>
+      <c r="D7" t="s" s="705">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="706">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="707">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="708">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="709">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="710">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="712">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7922,175 +8133,181 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="72.578125" customWidth="true"/>
+    <col min="10" max="10" width="75.390625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="661">
+      <c r="A1" t="s" s="713">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="662">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="663">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="664">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="665">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="666">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="667">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="668">
+      <c r="B1" t="s" s="714">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="715">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="716">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="717">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="718">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="719">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="720">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="669">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="670">
+      <c r="I1" t="s" s="721">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="722">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="671">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="672">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="673">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="674">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="675">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="676">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="677">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="678">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="679">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="680">
+      <c r="A2" t="s" s="723">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="724">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="725">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="726">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="727">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="728">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="729">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="730">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="731">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="732">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="681">
+      <c r="A3" t="s" s="733">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="682">
+      <c r="B3" t="s" s="734">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="683">
+      <c r="C3" t="s" s="735">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="684">
+      <c r="D3" t="s" s="736">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="685">
+      <c r="E3" t="s" s="737">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="686">
+      <c r="F3" t="s" s="738">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="687">
+      <c r="G3" t="s" s="739">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="688">
+      <c r="H3" t="s" s="740">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="689">
+      <c r="I3" t="s" s="741">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="690">
+      <c r="J3" t="s" s="742">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="691">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s" s="692">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s" s="693">
+      <c r="A4" t="s" s="743">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s" s="744">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s" s="745">
         <v>16</v>
       </c>
-      <c r="D4" t="s" s="694">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="695">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="696">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="697">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="698">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="699">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="700">
+      <c r="D4" t="s" s="746">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="747">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="748">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="749">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="750">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="751">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="752">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="701">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s" s="702">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s" s="703">
+      <c r="A5" t="s" s="753">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s" s="754">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s" s="755">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="704">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="705">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="706">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="707">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="708">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="709">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="710">
-        <v>1</v>
+      <c r="D5" t="s" s="756">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="757">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="758">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="759">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="760">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="761">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="763">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8111,175 +8328,181 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="65.078125" customWidth="true"/>
+    <col min="10" max="10" width="67.890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="711">
+      <c r="A1" t="s" s="764">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="712">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="713">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="714">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="715">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="716">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="717">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="718">
+      <c r="B1" t="s" s="765">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="766">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="767">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="768">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="769">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="770">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="771">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="719">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="720">
+      <c r="I1" t="s" s="772">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="773">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="721">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="722">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="723">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="724">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="725">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="726">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="727">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="728">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="729">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="730">
+      <c r="A2" t="s" s="774">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="775">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="776">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="777">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="778">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="779">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="780">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="781">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="782">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="783">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="731">
+      <c r="A3" t="s" s="784">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="732">
+      <c r="B3" t="s" s="785">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="733">
+      <c r="C3" t="s" s="786">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="734">
+      <c r="D3" t="s" s="787">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="735">
+      <c r="E3" t="s" s="788">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="736">
+      <c r="F3" t="s" s="789">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="737">
+      <c r="G3" t="s" s="790">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="738">
+      <c r="H3" t="s" s="791">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="739">
+      <c r="I3" t="s" s="792">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="740">
+      <c r="J3" t="s" s="793">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="741">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s" s="742">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s" s="743">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="744">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="745">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="746">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="747">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="748">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="749">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="750">
+      <c r="A4" t="s" s="794">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s" s="795">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s" s="796">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="797">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="798">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="799">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="800">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="801">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="802">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="803">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="751">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s" s="752">
+      <c r="A5" t="s" s="804">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s" s="805">
         <v>14</v>
       </c>
-      <c r="C5" t="s" s="753">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s" s="754">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="755">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="756">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="757">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="758">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="759">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="760">
-        <v>1</v>
+      <c r="C5" t="s" s="806">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s" s="807">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="808">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="809">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="810">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="811">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="812">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="814">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8300,207 +8523,213 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="73.515625" customWidth="true"/>
+    <col min="10" max="10" width="76.328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="761">
+      <c r="A1" t="s" s="815">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="762">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="763">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="764">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="765">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="766">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="767">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="768">
+      <c r="B1" t="s" s="816">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="817">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="818">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="819">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="820">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="821">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="822">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="769">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="770">
+      <c r="I1" t="s" s="823">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="824">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="771">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="772">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="773">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="774">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="775">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="776">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="777">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="778">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="779">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="780">
+      <c r="A2" t="s" s="825">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="826">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="827">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="828">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="829">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="830">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="831">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="832">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="833">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="834">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="781">
+      <c r="A3" t="s" s="835">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="782">
+      <c r="B3" t="s" s="836">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="783">
+      <c r="C3" t="s" s="837">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="784">
+      <c r="D3" t="s" s="838">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="785">
+      <c r="E3" t="s" s="839">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="786">
+      <c r="F3" t="s" s="840">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="787">
+      <c r="G3" t="s" s="841">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="788">
+      <c r="H3" t="s" s="842">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="789">
+      <c r="I3" t="s" s="843">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="790">
+      <c r="J3" t="s" s="844">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="791">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s" s="792">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s" s="793">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="794">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="795">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="796">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="797">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="798">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="799">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="800">
+      <c r="A4" t="s" s="845">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s" s="846">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s" s="847">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="848">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="849">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="850">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="851">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="852">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="853">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="854">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="801">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s" s="802">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s" s="803">
+      <c r="A5" t="s" s="855">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s" s="856">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s" s="857">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="804">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="805">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="806">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="807">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="808">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="809">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="810">
+      <c r="D5" t="s" s="858">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="859">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="860">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="861">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="862">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="863">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="864">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="811">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s" s="812">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s" s="813">
+      <c r="A6" t="s" s="865">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s" s="866">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s" s="867">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="814">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="815">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="816">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="817">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="818">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="819">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="820">
-        <v>1</v>
+      <c r="D6" t="s" s="868">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="869">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="870">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="871">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="872">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="873">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="875">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8521,239 +8750,245 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="72.578125" customWidth="true"/>
+    <col min="10" max="10" width="75.390625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="821">
+      <c r="A1" t="s" s="876">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="822">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="823">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="824">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="825">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="826">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="827">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="828">
+      <c r="B1" t="s" s="877">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="878">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="879">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="880">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="881">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="882">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="883">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="829">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="830">
+      <c r="I1" t="s" s="884">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="885">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="831">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="832">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="833">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="834">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="835">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="836">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="837">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="838">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="839">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="840">
+      <c r="A2" t="s" s="886">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="887">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="888">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="889">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="890">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="891">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="892">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="893">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="894">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="895">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="841">
+      <c r="A3" t="s" s="896">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="842">
+      <c r="B3" t="s" s="897">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="843">
+      <c r="C3" t="s" s="898">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="844">
+      <c r="D3" t="s" s="899">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="845">
+      <c r="E3" t="s" s="900">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="846">
+      <c r="F3" t="s" s="901">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="847">
+      <c r="G3" t="s" s="902">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="848">
+      <c r="H3" t="s" s="903">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="849">
+      <c r="I3" t="s" s="904">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="850">
+      <c r="J3" t="s" s="905">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="851">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s" s="852">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s" s="853">
+      <c r="A4" t="s" s="906">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s" s="907">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="908">
         <v>15</v>
       </c>
-      <c r="D4" t="s" s="854">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="855">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="856">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="857">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="858">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="859">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="860">
+      <c r="D4" t="s" s="909">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="910">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="911">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="912">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="913">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="914">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="915">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="861">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s" s="862">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s" s="863">
+      <c r="A5" t="s" s="916">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s" s="917">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s" s="918">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="864">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="865">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="866">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="867">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="868">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="869">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="870">
+      <c r="D5" t="s" s="919">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="920">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="921">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="922">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="923">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="924">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="925">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="871">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s" s="872">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s" s="873">
+      <c r="A6" t="s" s="926">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s" s="927">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s" s="928">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="874">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="875">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="876">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="877">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="878">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="879">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="880">
+      <c r="D6" t="s" s="929">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="930">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="931">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="932">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="933">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="934">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="935">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="881">
-        <v>96</v>
-      </c>
-      <c r="B7" t="s" s="882">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s" s="883">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s" s="884">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="885">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="886">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="887">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="888">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="889">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="890">
-        <v>1</v>
+      <c r="A7" t="s" s="936">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="937">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s" s="938">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s" s="939">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="940">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="941">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="942">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="943">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="944">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="946">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8774,111 +9009,117 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="891">
+      <c r="A1" t="s" s="947">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="892">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="893">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="894">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="895">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="896">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="897">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="898">
+      <c r="B1" t="s" s="948">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="949">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="950">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="951">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="952">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="953">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="954">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="899">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="900">
+      <c r="I1" t="s" s="955">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="956">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="901">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="902">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="903">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="904">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="905">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="906">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="907">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="908">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="909">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="910">
+      <c r="A2" t="s" s="957">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="958">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="959">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="960">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="961">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="962">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="963">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="964">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="965">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="966">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="911">
+      <c r="A3" t="s" s="967">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="912">
+      <c r="B3" t="s" s="968">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="913">
+      <c r="C3" t="s" s="969">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="914">
+      <c r="D3" t="s" s="970">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="915">
+      <c r="E3" t="s" s="971">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="916">
+      <c r="F3" t="s" s="972">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="917">
+      <c r="G3" t="s" s="973">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="918">
+      <c r="H3" t="s" s="974">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="919">
+      <c r="I3" t="s" s="975">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="920">
+      <c r="J3" t="s" s="976">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="977">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8899,239 +9140,245 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="47.265625" customWidth="true"/>
+    <col min="10" max="10" width="50.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="921">
+      <c r="A1" t="s" s="978">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="922">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="923">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="924">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="925">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="926">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="927">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="928">
+      <c r="B1" t="s" s="979">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="980">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="981">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="982">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="983">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="984">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="985">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="929">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="930">
+      <c r="I1" t="s" s="986">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="987">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="931">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="932">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="933">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="934">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="935">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="936">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="937">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="938">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="939">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="940">
+      <c r="A2" t="s" s="988">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="989">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="990">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="991">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="992">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="993">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="994">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="995">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="996">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="997">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="941">
+      <c r="A3" t="s" s="998">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="942">
+      <c r="B3" t="s" s="999">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="943">
+      <c r="C3" t="s" s="1000">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="944">
+      <c r="D3" t="s" s="1001">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="945">
+      <c r="E3" t="s" s="1002">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="946">
+      <c r="F3" t="s" s="1003">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="947">
+      <c r="G3" t="s" s="1004">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="948">
+      <c r="H3" t="s" s="1005">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="949">
+      <c r="I3" t="s" s="1006">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="950">
+      <c r="J3" t="s" s="1007">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="951">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s" s="952">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s" s="953">
+      <c r="A4" t="s" s="1008">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s" s="1009">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s" s="1010">
         <v>16</v>
       </c>
-      <c r="D4" t="s" s="954">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="955">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="956">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="957">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="958">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="959">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="960">
+      <c r="D4" t="s" s="1011">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="1012">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="1013">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="1014">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="1015">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="1016">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="1017">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="961">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s" s="962">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s" s="963">
+      <c r="A5" t="s" s="1018">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s" s="1019">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s" s="1020">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="964">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="965">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="966">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="967">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="968">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="969">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="970">
+      <c r="D5" t="s" s="1021">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="1022">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="1023">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="1024">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="1025">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="1026">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="1027">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="971">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s" s="972">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s" s="973">
+      <c r="A6" t="s" s="1028">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s" s="1029">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s" s="1030">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="974">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="975">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="976">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="977">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="978">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="979">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="980">
+      <c r="D6" t="s" s="1031">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="1032">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="1033">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="1034">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="1035">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="1036">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="1037">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="981">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s" s="982">
+      <c r="A7" t="s" s="1038">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s" s="1039">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="983">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s" s="984">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="985">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="986">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="987">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="988">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="989">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="990">
-        <v>1</v>
+      <c r="C7" t="s" s="1040">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="1041">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="1042">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="1043">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="1044">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="1045">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="1046">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1048">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9145,246 +9392,316 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.0625" customWidth="true"/>
+    <col min="1" max="1" width="15.9375" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="71.640625" customWidth="true"/>
+    <col min="10" max="10" width="72.578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="991">
+      <c r="A1" t="s" s="1049">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="992">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="993">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="994">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="995">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="996">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="997">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="998">
+      <c r="B1" t="s" s="1050">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1051">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1052">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1053">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1054">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1055">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1056">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="999">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1000">
+      <c r="I1" t="s" s="1057">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1058">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1001">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1002">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1003">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1004">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1005">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1006">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1007">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1008">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1009">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1010">
+      <c r="A2" t="s" s="1059">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1060">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1061">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1062">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1063">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1064">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1065">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1066">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1067">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1068">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1011">
+      <c r="A3" t="s" s="1069">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1012">
+      <c r="B3" t="s" s="1070">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1013">
+      <c r="C3" t="s" s="1071">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1014">
+      <c r="D3" t="s" s="1072">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1015">
+      <c r="E3" t="s" s="1073">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1016">
+      <c r="F3" t="s" s="1074">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1017">
+      <c r="G3" t="s" s="1075">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1018">
+      <c r="H3" t="s" s="1076">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1019">
+      <c r="I3" t="s" s="1077">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1020">
+      <c r="J3" t="s" s="1078">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="1021">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s" s="1022">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s" s="1023">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="1024">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="1025">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="1026">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="1027">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="1028">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="1029">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="1030">
+      <c r="A4" t="s" s="1079">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s" s="1080">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s" s="1081">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="1082">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="1083">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="1084">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="1085">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="1086">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="1087">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="1088">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="1031">
-        <v>107</v>
-      </c>
-      <c r="B5" t="s" s="1032">
-        <v>108</v>
-      </c>
-      <c r="C5" t="s" s="1033">
+      <c r="A5" t="s" s="1089">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s" s="1090">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s" s="1091">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="1034">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="1035">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="1036">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="1037">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="1038">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="1039">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="1040">
+      <c r="D5" t="s" s="1092">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="1093">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="1094">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="1095">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="1096">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="1097">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="1098">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="1041">
-        <v>109</v>
-      </c>
-      <c r="B6" t="s" s="1042">
-        <v>110</v>
-      </c>
-      <c r="C6" t="s" s="1043">
+      <c r="A6" t="s" s="1099">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s" s="1100">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s" s="1101">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="1102">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="1103">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="1104">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="1105">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="1106">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="1107">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="1108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1109">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s" s="1110">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s" s="1111">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="1044">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="1045">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="1046">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="1047">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="1048">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="1049">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="1050">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="1051">
+      <c r="D7" t="s" s="1112">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="1113">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="1114">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="1115">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="1116">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="1117">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="1118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1119">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s" s="1120">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s" s="1121">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s" s="1122">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="1123">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="1124">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="1125">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="1126">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="1127">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="1128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1129">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s" s="1130">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s" s="1131">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s" s="1132">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="1133">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="1134">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="1135">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="1136">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s" s="1137">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s" s="1138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1139">
         <v>111</v>
-      </c>
-      <c r="B7" t="s" s="1052">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s" s="1053">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="1054">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="1055">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="1056">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="1057">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="1058">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="1059">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="1060">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9405,303 +9722,341 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="67.890625" customWidth="true"/>
+    <col min="10" max="10" width="70.703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="51">
+      <c r="A1" t="s" s="82">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="52">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="53">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="54">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="55">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="56">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="57">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="58">
+      <c r="B1" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="84">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="89">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="59">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="60">
+      <c r="I1" t="s" s="90">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="61">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="62">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="63">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="64">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="65">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="66">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="67">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="68">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="69">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="70">
+      <c r="A2" t="s" s="92">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="93">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="94">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="95">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="96">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="97">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="98">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="99">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="100">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="71">
+      <c r="A3" t="s" s="102">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="72">
+      <c r="B3" t="s" s="103">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="73">
+      <c r="C3" t="s" s="104">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="74">
+      <c r="D3" t="s" s="105">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="75">
+      <c r="E3" t="s" s="106">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="76">
+      <c r="F3" t="s" s="107">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="77">
+      <c r="G3" t="s" s="108">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="78">
+      <c r="H3" t="s" s="109">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="79">
+      <c r="I3" t="s" s="110">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="80">
+      <c r="J3" t="s" s="111">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="81">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s" s="82">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s" s="83">
+      <c r="A4" t="s" s="112">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s" s="113">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s" s="114">
         <v>15</v>
       </c>
-      <c r="D4" t="s" s="84">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="85">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="86">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="87">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="88">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="89">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="90">
+      <c r="D4" t="s" s="115">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="116">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="117">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="118">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="119">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="120">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="121">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="91">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s" s="92">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s" s="93">
+      <c r="A5" t="s" s="122">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s" s="123">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="124">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s" s="125">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="126">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="127">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="128">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="129">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="130">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="132">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="133">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="134">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="94">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="95">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="96">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="97">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="98">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="99">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="101">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s" s="102">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s" s="103">
+      <c r="D6" t="s" s="135">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="136">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="137">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="138">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="139">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="140">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="142">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s" s="143">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s" s="144">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="104">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="105">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="106">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="107">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="108">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="109">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="111">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s" s="112">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s" s="113">
+      <c r="D7" t="s" s="145">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="146">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="147">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="148">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="149">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="150">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="152">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s" s="153">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s" s="154">
         <v>15</v>
       </c>
-      <c r="D7" t="s" s="114">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="115">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="116">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="117">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="118">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="119">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="121">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s" s="122">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="123">
+      <c r="D8" t="s" s="155">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="156">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="157">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="158">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="159">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="160">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="162">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s" s="163">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s" s="164">
         <v>15</v>
       </c>
-      <c r="D8" t="s" s="124">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="125">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="126">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="127">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="128">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s" s="129">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s" s="130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="131">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s" s="132">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s" s="133">
+      <c r="D9" t="s" s="165">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="166">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="167">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="168">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="169">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s" s="170">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s" s="171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="172">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="173">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s" s="174">
         <v>16</v>
       </c>
-      <c r="D9" t="s" s="134">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="135">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="136">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s" s="137">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s" s="138">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s" s="139">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s" s="140">
-        <v>1</v>
+      <c r="D10" t="s" s="175">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="176">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="177">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="178">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="179">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s" s="180">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="182">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9722,175 +10077,149 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="68.828125" customWidth="true"/>
+    <col min="10" max="10" width="71.640625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1061">
+      <c r="A1" t="s" s="1140">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1062">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1063">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1064">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1065">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="1066">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="1067">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="1068">
+      <c r="B1" t="s" s="1141">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1142">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1143">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1144">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1145">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1146">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1147">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="1069">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1070">
+      <c r="I1" t="s" s="1148">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1149">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1071">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1072">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1073">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1074">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1075">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1076">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1077">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1078">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1079">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1080">
+      <c r="A2" t="s" s="1150">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1151">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1152">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1153">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1154">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1155">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1156">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1157">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1158">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1159">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1081">
+      <c r="A3" t="s" s="1160">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1082">
+      <c r="B3" t="s" s="1161">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1083">
+      <c r="C3" t="s" s="1162">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1084">
+      <c r="D3" t="s" s="1163">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1085">
+      <c r="E3" t="s" s="1164">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1086">
+      <c r="F3" t="s" s="1165">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1087">
+      <c r="G3" t="s" s="1166">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1088">
+      <c r="H3" t="s" s="1167">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1089">
+      <c r="I3" t="s" s="1168">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1090">
+      <c r="J3" t="s" s="1169">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="1091">
-        <v>113</v>
-      </c>
-      <c r="B4" t="s" s="1092">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s" s="1093">
+      <c r="A4" t="s" s="1170">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s" s="1171">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s" s="1172">
         <v>16</v>
       </c>
-      <c r="D4" t="s" s="1094">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="1095">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="1096">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="1097">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="1098">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="1099">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="1100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1101">
-        <v>115</v>
-      </c>
-      <c r="B5" t="s" s="1102">
-        <v>116</v>
-      </c>
-      <c r="C5" t="s" s="1103">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="1104">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="1105">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="1106">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="1107">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="1108">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="1109">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="1110">
-        <v>1</v>
+      <c r="D4" t="s" s="1173">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="1174">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="1175">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="1176">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="1177">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="1178">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="1179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1180">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9911,111 +10240,117 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1111">
+      <c r="A1" t="s" s="1181">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1112">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1113">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1114">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1115">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="1116">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="1117">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="1118">
+      <c r="B1" t="s" s="1182">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1183">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1184">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1185">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1186">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1187">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1188">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="1119">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1120">
+      <c r="I1" t="s" s="1189">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1190">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1121">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1122">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1123">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1124">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1125">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1126">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1127">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1128">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1129">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1130">
+      <c r="A2" t="s" s="1191">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1192">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1193">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1194">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1195">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1196">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1197">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1198">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1199">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1200">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1131">
+      <c r="A3" t="s" s="1201">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1132">
+      <c r="B3" t="s" s="1202">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1133">
+      <c r="C3" t="s" s="1203">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1134">
+      <c r="D3" t="s" s="1204">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1135">
+      <c r="E3" t="s" s="1205">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1136">
+      <c r="F3" t="s" s="1206">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1137">
+      <c r="G3" t="s" s="1207">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1138">
+      <c r="H3" t="s" s="1208">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1139">
+      <c r="I3" t="s" s="1209">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1140">
+      <c r="J3" t="s" s="1210">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1211">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10036,175 +10371,181 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="70.703125" customWidth="true"/>
+    <col min="10" max="10" width="73.515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1141">
+      <c r="A1" t="s" s="1212">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1142">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1143">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1144">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1145">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="1146">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="1147">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="1148">
+      <c r="B1" t="s" s="1213">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1214">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1215">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1216">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1217">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1218">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1219">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="1149">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1150">
+      <c r="I1" t="s" s="1220">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1221">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1151">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1152">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1153">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1154">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1155">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1156">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1157">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1158">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1159">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1160">
+      <c r="A2" t="s" s="1222">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1223">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1224">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1225">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1226">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1227">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1228">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1229">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1230">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1231">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1161">
+      <c r="A3" t="s" s="1232">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1162">
+      <c r="B3" t="s" s="1233">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1163">
+      <c r="C3" t="s" s="1234">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1164">
+      <c r="D3" t="s" s="1235">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1165">
+      <c r="E3" t="s" s="1236">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1166">
+      <c r="F3" t="s" s="1237">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1167">
+      <c r="G3" t="s" s="1238">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1168">
+      <c r="H3" t="s" s="1239">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1169">
+      <c r="I3" t="s" s="1240">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1170">
+      <c r="J3" t="s" s="1241">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="1171">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s" s="1172">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s" s="1173">
-        <v>119</v>
-      </c>
-      <c r="D4" t="s" s="1174">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="1175">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="1176">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="1177">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="1178">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="1179">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="1180">
+      <c r="A4" t="s" s="1242">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s" s="1243">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s" s="1244">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s" s="1245">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="1246">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="1247">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="1248">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="1249">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="1250">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="1251">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="1181">
-        <v>120</v>
-      </c>
-      <c r="B5" t="s" s="1182">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s" s="1183">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s" s="1184">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="1185">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="1186">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="1187">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="1188">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="1189">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="1190">
-        <v>1</v>
+      <c r="A5" t="s" s="1252">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s" s="1253">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s" s="1254">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s" s="1255">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="1256">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="1257">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="1258">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="1259">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="1260">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="1261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1262">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10225,303 +10566,309 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="68.828125" customWidth="true"/>
+    <col min="10" max="10" width="71.640625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1191">
+      <c r="A1" t="s" s="1263">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1192">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1193">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1194">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1195">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="1196">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="1197">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="1198">
+      <c r="B1" t="s" s="1264">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1265">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1266">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1267">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1268">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1269">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1270">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="1199">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1200">
+      <c r="I1" t="s" s="1271">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1272">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1201">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1202">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1203">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1204">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1205">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1206">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1207">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1208">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1209">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1210">
+      <c r="A2" t="s" s="1273">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1274">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1275">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1276">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1277">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1278">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1279">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1280">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1281">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1282">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1211">
+      <c r="A3" t="s" s="1283">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1212">
+      <c r="B3" t="s" s="1284">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1213">
+      <c r="C3" t="s" s="1285">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1214">
+      <c r="D3" t="s" s="1286">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1215">
+      <c r="E3" t="s" s="1287">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1216">
+      <c r="F3" t="s" s="1288">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1217">
+      <c r="G3" t="s" s="1289">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1218">
+      <c r="H3" t="s" s="1290">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1219">
+      <c r="I3" t="s" s="1291">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1220">
+      <c r="J3" t="s" s="1292">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="1221">
-        <v>122</v>
-      </c>
-      <c r="B4" t="s" s="1222">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s" s="1223">
+      <c r="A4" t="s" s="1293">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s" s="1294">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s" s="1295">
         <v>15</v>
       </c>
-      <c r="D4" t="s" s="1224">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="1225">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="1226">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="1227">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="1228">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="1229">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="1230">
+      <c r="D4" t="s" s="1296">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="1297">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="1298">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="1299">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="1300">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="1301">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="1302">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="1231">
-        <v>124</v>
-      </c>
-      <c r="B5" t="s" s="1232">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s" s="1233">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s" s="1234">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="1235">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="1236">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="1237">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="1238">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="1239">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="1240">
+      <c r="A5" t="s" s="1303">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s" s="1304">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s" s="1305">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s" s="1306">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="1307">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="1308">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="1309">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="1310">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="1311">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="1312">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="1241">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s" s="1242">
-        <v>127</v>
-      </c>
-      <c r="C6" t="s" s="1243">
+      <c r="A6" t="s" s="1313">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s" s="1314">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s" s="1315">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="1244">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="1245">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="1246">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="1247">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="1248">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="1249">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="1250">
+      <c r="D6" t="s" s="1316">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="1317">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="1318">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="1319">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="1320">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="1321">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="1322">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="1251">
-        <v>128</v>
-      </c>
-      <c r="B7" t="s" s="1252">
-        <v>129</v>
-      </c>
-      <c r="C7" t="s" s="1253">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s" s="1254">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="1255">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="1256">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="1257">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="1258">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="1259">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="1260">
+      <c r="A7" t="s" s="1323">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s" s="1324">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s" s="1325">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s" s="1326">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="1327">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="1328">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="1329">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="1330">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="1331">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="1332">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="1261">
-        <v>130</v>
-      </c>
-      <c r="B8" t="s" s="1262">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s" s="1263">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s" s="1264">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="1265">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="1266">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="1267">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="1268">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s" s="1269">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s" s="1270">
+      <c r="A8" t="s" s="1333">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s" s="1334">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s" s="1335">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s" s="1336">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="1337">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="1338">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="1339">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="1340">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="1341">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="1342">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="1271">
-        <v>132</v>
-      </c>
-      <c r="B9" t="s" s="1272">
-        <v>133</v>
-      </c>
-      <c r="C9" t="s" s="1273">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s" s="1274">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="1275">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="1276">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s" s="1277">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s" s="1278">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s" s="1279">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s" s="1280">
-        <v>1</v>
+      <c r="A9" t="s" s="1343">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s" s="1344">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s" s="1345">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s" s="1346">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="1347">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="1348">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="1349">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="1350">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s" s="1351">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s" s="1352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1353">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10542,111 +10889,117 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1281">
+      <c r="A1" t="s" s="1354">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1282">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1283">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1284">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1285">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="1286">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="1287">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="1288">
+      <c r="B1" t="s" s="1355">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1356">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1357">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1358">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1359">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1360">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1361">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="1289">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1290">
+      <c r="I1" t="s" s="1362">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1363">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1291">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1292">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1293">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1294">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1295">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1296">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1297">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1298">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1299">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1300">
+      <c r="A2" t="s" s="1364">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1365">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1366">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1367">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1368">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1369">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1370">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1371">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1372">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1373">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1301">
+      <c r="A3" t="s" s="1374">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1302">
+      <c r="B3" t="s" s="1375">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1303">
+      <c r="C3" t="s" s="1376">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1304">
+      <c r="D3" t="s" s="1377">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1305">
+      <c r="E3" t="s" s="1378">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1306">
+      <c r="F3" t="s" s="1379">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1307">
+      <c r="G3" t="s" s="1380">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1308">
+      <c r="H3" t="s" s="1381">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1309">
+      <c r="I3" t="s" s="1382">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1310">
+      <c r="J3" t="s" s="1383">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1384">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10667,111 +11020,117 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1311">
+      <c r="A1" t="s" s="1385">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1312">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1313">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1314">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1315">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="1316">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="1317">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="1318">
+      <c r="B1" t="s" s="1386">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1387">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1388">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1389">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1390">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1391">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1392">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="1319">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1320">
+      <c r="I1" t="s" s="1393">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1394">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1321">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1322">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1323">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1324">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1325">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1326">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1327">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1328">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1329">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1330">
+      <c r="A2" t="s" s="1395">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1396">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1397">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1398">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1399">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1400">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1401">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1402">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1403">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1404">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1331">
+      <c r="A3" t="s" s="1405">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1332">
+      <c r="B3" t="s" s="1406">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1333">
+      <c r="C3" t="s" s="1407">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1334">
+      <c r="D3" t="s" s="1408">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1335">
+      <c r="E3" t="s" s="1409">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1336">
+      <c r="F3" t="s" s="1410">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1337">
+      <c r="G3" t="s" s="1411">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1338">
+      <c r="H3" t="s" s="1412">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1339">
+      <c r="I3" t="s" s="1413">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1340">
+      <c r="J3" t="s" s="1414">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1415">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10792,143 +11151,149 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="75.390625" customWidth="true"/>
+    <col min="10" max="10" width="78.203125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1341">
+      <c r="A1" t="s" s="1416">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1342">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1343">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1344">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1345">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="1346">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="1347">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="1348">
+      <c r="B1" t="s" s="1417">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1418">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="1419">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="1420">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="1421">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="1422">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="1423">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="1349">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="1350">
+      <c r="I1" t="s" s="1424">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="1425">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1351">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="1352">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="1353">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="1354">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="1355">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="1356">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="1357">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="1358">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="1359">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="1360">
+      <c r="A2" t="s" s="1426">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="1427">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="1428">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1429">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="1430">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="1431">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="1432">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="1433">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="1434">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="1435">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1361">
+      <c r="A3" t="s" s="1436">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="1362">
+      <c r="B3" t="s" s="1437">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1363">
+      <c r="C3" t="s" s="1438">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="1364">
+      <c r="D3" t="s" s="1439">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="1365">
+      <c r="E3" t="s" s="1440">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="1366">
+      <c r="F3" t="s" s="1441">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="1367">
+      <c r="G3" t="s" s="1442">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="1368">
+      <c r="H3" t="s" s="1443">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="1369">
+      <c r="I3" t="s" s="1444">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="1370">
+      <c r="J3" t="s" s="1445">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="1371">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s" s="1372">
-        <v>135</v>
-      </c>
-      <c r="C4" t="s" s="1373">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="1374">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="1375">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="1376">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="1377">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="1378">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="1379">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="1380">
-        <v>1</v>
+      <c r="A4" t="s" s="1446">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s" s="1447">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s" s="1448">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="1449">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="1450">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="1451">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="1452">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="1453">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="1454">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="1455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1456">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10942,182 +11307,252 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.1875" customWidth="true"/>
+    <col min="1" max="1" width="14.0625" customWidth="true"/>
     <col min="2" max="2" width="10.3125" customWidth="true"/>
     <col min="3" max="3" width="4.6875" customWidth="true"/>
     <col min="4" max="4" width="4.6875" customWidth="true"/>
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="73.515625" customWidth="true"/>
+    <col min="10" max="10" width="74.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="141">
+      <c r="A1" t="s" s="183">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="142">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="143">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="144">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="145">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="146">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="147">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="148">
+      <c r="B1" t="s" s="184">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="185">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="186">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="187">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="188">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="189">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="190">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="149">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="150">
+      <c r="I1" t="s" s="191">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="192">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="151">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="152">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="153">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="154">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="155">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="156">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="157">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="158">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="159">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="160">
+      <c r="A2" t="s" s="193">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="194">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="195">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="196">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="197">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="198">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="199">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="200">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="201">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="202">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="161">
+      <c r="A3" t="s" s="203">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="162">
+      <c r="B3" t="s" s="204">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="163">
+      <c r="C3" t="s" s="205">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="164">
+      <c r="D3" t="s" s="206">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="165">
+      <c r="E3" t="s" s="207">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="166">
+      <c r="F3" t="s" s="208">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="167">
+      <c r="G3" t="s" s="209">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="168">
+      <c r="H3" t="s" s="210">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="169">
+      <c r="I3" t="s" s="211">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="170">
+      <c r="J3" t="s" s="212">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="171">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="172">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s" s="173">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s" s="174">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="175">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="176">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="177">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="178">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="179">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="180">
+      <c r="A4" t="s" s="213">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s" s="214">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s" s="215">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s" s="216">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="217">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="218">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="219">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="220">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="221">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="222">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="181">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s" s="182">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s" s="183">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s" s="184">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="185">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="186">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="187">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="188">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="189">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="190">
-        <v>1</v>
+      <c r="A5" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="224">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s" s="225">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s" s="226">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="227">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="228">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="229">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="230">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="231">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="233">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s" s="234">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s" s="235">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="236">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="237">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="238">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="239">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="240">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="241">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="243">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s" s="244">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s" s="245">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s" s="246">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="247">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="248">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="249">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="250">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="251">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="253">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -11138,271 +11573,277 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="68.828125" customWidth="true"/>
+    <col min="10" max="10" width="71.640625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="191">
+      <c r="A1" t="s" s="254">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="192">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="193">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="194">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="195">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="196">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="197">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="198">
+      <c r="B1" t="s" s="255">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="256">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="257">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="258">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="259">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="260">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="261">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="199">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="200">
+      <c r="I1" t="s" s="262">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="263">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="201">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="202">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="203">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="204">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="205">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="206">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="207">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="208">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="209">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="210">
+      <c r="A2" t="s" s="264">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="265">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="266">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="267">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="268">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="269">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="270">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="271">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="272">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="273">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="211">
+      <c r="A3" t="s" s="274">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="212">
+      <c r="B3" t="s" s="275">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="213">
+      <c r="C3" t="s" s="276">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="214">
+      <c r="D3" t="s" s="277">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="215">
+      <c r="E3" t="s" s="278">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="216">
+      <c r="F3" t="s" s="279">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="217">
+      <c r="G3" t="s" s="280">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="218">
+      <c r="H3" t="s" s="281">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="219">
+      <c r="I3" t="s" s="282">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="220">
+      <c r="J3" t="s" s="283">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="221">
+      <c r="A4" t="s" s="284">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s" s="285">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s" s="286">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="287">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="288">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="289">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="290">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="291">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="292">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="294">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s" s="295">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s" s="296">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s" s="297">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="298">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="299">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="300">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="301">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="302">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="304">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s" s="305">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s" s="306">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="307">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="308">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="309">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="310">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="311">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="312">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="314">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s" s="315">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s" s="316">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="317">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="318">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="319">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="320">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="321">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="322">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="324">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="325">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s" s="326">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s" s="327">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="328">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="329">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="330">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="331">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="332">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="334">
         <v>35</v>
-      </c>
-      <c r="B4" t="s" s="222">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s" s="223">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="224">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="225">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="226">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="227">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="228">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="229">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="231">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s" s="232">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s" s="233">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s" s="234">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="235">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="236">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="237">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="238">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="239">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="241">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s" s="242">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s" s="243">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s" s="244">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="245">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="246">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="247">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="248">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="249">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="251">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s" s="252">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s" s="253">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="254">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="255">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="256">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="257">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="258">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="259">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="261">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s" s="262">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s" s="263">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s" s="264">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="265">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="266">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="267">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="268">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s" s="269">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s" s="270">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A10:J10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -11423,111 +11864,117 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="271">
+      <c r="A1" t="s" s="335">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="272">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="273">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="274">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="275">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="276">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="277">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="278">
+      <c r="B1" t="s" s="336">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="337">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="338">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="339">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="340">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="341">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="342">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="279">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="280">
+      <c r="I1" t="s" s="343">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="344">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="281">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="282">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="283">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="284">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="285">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="286">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="287">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="288">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="289">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="290">
+      <c r="A2" t="s" s="345">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="346">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="347">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="348">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="349">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="350">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="351">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="352">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="353">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="354">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="291">
+      <c r="A3" t="s" s="355">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="292">
+      <c r="B3" t="s" s="356">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="293">
+      <c r="C3" t="s" s="357">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="294">
+      <c r="D3" t="s" s="358">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="295">
+      <c r="E3" t="s" s="359">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="296">
+      <c r="F3" t="s" s="360">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="297">
+      <c r="G3" t="s" s="361">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="298">
+      <c r="H3" t="s" s="362">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="299">
+      <c r="I3" t="s" s="363">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="300">
+      <c r="J3" t="s" s="364">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="365">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -11548,143 +11995,149 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="73.515625" customWidth="true"/>
+    <col min="10" max="10" width="76.328125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="301">
+      <c r="A1" t="s" s="366">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="302">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="303">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="304">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="305">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="306">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="307">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="308">
+      <c r="B1" t="s" s="367">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="368">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="369">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="370">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="371">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="372">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="373">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="309">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="310">
+      <c r="I1" t="s" s="374">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="375">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="311">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="312">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="313">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="314">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="315">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="316">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="317">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="318">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="319">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="320">
+      <c r="A2" t="s" s="376">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="377">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="378">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="379">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="380">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="381">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="382">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="383">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="384">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="385">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="321">
+      <c r="A3" t="s" s="386">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="322">
+      <c r="B3" t="s" s="387">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="323">
+      <c r="C3" t="s" s="388">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="324">
+      <c r="D3" t="s" s="389">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="325">
+      <c r="E3" t="s" s="390">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="326">
+      <c r="F3" t="s" s="391">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="327">
+      <c r="G3" t="s" s="392">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="328">
+      <c r="H3" t="s" s="393">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="329">
+      <c r="I3" t="s" s="394">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="330">
+      <c r="J3" t="s" s="395">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="331">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s" s="332">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s" s="333">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s" s="334">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="335">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="336">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="337">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="338">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="339">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="340">
-        <v>1</v>
+      <c r="A4" t="s" s="396">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s" s="397">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s" s="398">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s" s="399">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="400">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="401">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="402">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="403">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="404">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="406">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -11705,175 +12158,181 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="69.765625" customWidth="true"/>
+    <col min="10" max="10" width="72.578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="341">
+      <c r="A1" t="s" s="407">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="342">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="343">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="344">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="345">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="346">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="347">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="348">
+      <c r="B1" t="s" s="408">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="409">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="410">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="411">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="412">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="413">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="414">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="349">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="350">
+      <c r="I1" t="s" s="415">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="416">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="351">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="352">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="353">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="354">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="355">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="356">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="357">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="358">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="359">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="360">
+      <c r="A2" t="s" s="417">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="418">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="419">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="420">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="421">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="422">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="423">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="424">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="425">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="426">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="361">
+      <c r="A3" t="s" s="427">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="362">
+      <c r="B3" t="s" s="428">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="363">
+      <c r="C3" t="s" s="429">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="364">
+      <c r="D3" t="s" s="430">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="365">
+      <c r="E3" t="s" s="431">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="366">
+      <c r="F3" t="s" s="432">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="367">
+      <c r="G3" t="s" s="433">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="368">
+      <c r="H3" t="s" s="434">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="369">
+      <c r="I3" t="s" s="435">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="370">
+      <c r="J3" t="s" s="436">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="371">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s" s="372">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s" s="373">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="374">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="375">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="376">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="377">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="378">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="379">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="380">
+      <c r="A4" t="s" s="437">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s" s="438">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s" s="439">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="440">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="441">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="442">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="443">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="444">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="445">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="446">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="381">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s" s="382">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s" s="383">
+      <c r="A5" t="s" s="447">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s" s="448">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s" s="449">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="384">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="385">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="386">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="387">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="388">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="389">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="390">
-        <v>1</v>
+      <c r="D5" t="s" s="450">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="451">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="452">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="453">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="454">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="455">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="457">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -11894,143 +12353,149 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="75.390625" customWidth="true"/>
+    <col min="10" max="10" width="78.203125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="391">
+      <c r="A1" t="s" s="458">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="392">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="393">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="394">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="395">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="396">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="397">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="398">
+      <c r="B1" t="s" s="459">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="460">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="461">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="462">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="463">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="464">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="465">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="399">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="400">
+      <c r="I1" t="s" s="466">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="467">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="401">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="402">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="403">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="404">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="405">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="406">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="407">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="408">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="409">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="410">
+      <c r="A2" t="s" s="468">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="469">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="470">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="471">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="472">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="473">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="474">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="475">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="476">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="477">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="411">
+      <c r="A3" t="s" s="478">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="412">
+      <c r="B3" t="s" s="479">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="413">
+      <c r="C3" t="s" s="480">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="414">
+      <c r="D3" t="s" s="481">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="415">
+      <c r="E3" t="s" s="482">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="416">
+      <c r="F3" t="s" s="483">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="417">
+      <c r="G3" t="s" s="484">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="418">
+      <c r="H3" t="s" s="485">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="419">
+      <c r="I3" t="s" s="486">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="420">
+      <c r="J3" t="s" s="487">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="421">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s" s="422">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s" s="423">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s" s="424">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="425">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="426">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="427">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="428">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="429">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="430">
-        <v>1</v>
+      <c r="A4" t="s" s="488">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s" s="489">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s" s="490">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s" s="491">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="492">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="493">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="494">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="495">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="496">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="498">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -12051,111 +12516,117 @@
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="4.6875" customWidth="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true"/>
+    <col min="8" max="8" width="9.375" customWidth="true"/>
     <col min="9" max="9" width="4.6875" customWidth="true"/>
-    <col min="10" max="10" width="77.265625" customWidth="true"/>
+    <col min="10" max="10" width="80.078125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="431">
+      <c r="A1" t="s" s="499">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="432">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="433">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="434">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="435">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="436">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="437">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="438">
+      <c r="B1" t="s" s="500">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="501">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="502">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="503">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="504">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="505">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="506">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="439">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="440">
+      <c r="I1" t="s" s="507">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="508">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="441">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="442">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="443">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="444">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="445">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="446">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="447">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="448">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="449">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s" s="450">
+      <c r="A2" t="s" s="509">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="510">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="511">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="512">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="513">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="514">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="515">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="516">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="517">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="518">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="451">
+      <c r="A3" t="s" s="519">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="452">
+      <c r="B3" t="s" s="520">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="453">
+      <c r="C3" t="s" s="521">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="454">
+      <c r="D3" t="s" s="522">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="455">
+      <c r="E3" t="s" s="523">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="456">
+      <c r="F3" t="s" s="524">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="457">
+      <c r="G3" t="s" s="525">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="458">
+      <c r="H3" t="s" s="526">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="459">
+      <c r="I3" t="s" s="527">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="460">
+      <c r="J3" t="s" s="528">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="529">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
